--- a/renault.xlsx
+++ b/renault.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="UserhistoryUpdate" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Created By:-</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Project:-</t>
   </si>
   <si>
-    <t>MB</t>
-  </si>
-  <si>
     <t>Lead_Devp. :-</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>Lead Dev: Ishu/ Vikash</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
   </si>
   <si>
     <t>29.10.2020</t>
@@ -310,9 +301,6 @@
     </r>
   </si>
   <si>
-    <t>Project Name:-Renault</t>
-  </si>
-  <si>
     <t>verify by changing the data if data is updated</t>
   </si>
   <si>
@@ -354,6 +342,15 @@
   </si>
   <si>
     <t>Home Phone and mobile phone Accepting Wrong data</t>
+  </si>
+  <si>
+    <t>Lead Dev: Alok Srivastava</t>
+  </si>
+  <si>
+    <t>Renault EW</t>
+  </si>
+  <si>
+    <t>Project Name:-Renault EW</t>
   </si>
 </sst>
 </file>
@@ -703,6 +700,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -718,18 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,35 +1115,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="A1" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,41 +1157,41 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="50" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>12807</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>25</v>
@@ -1266,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>28</v>
@@ -1293,7 +1290,7 @@
         <v>12807</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>33</v>
@@ -1330,7 +1327,7 @@
         <v>12807</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>39</v>
@@ -1339,7 +1336,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="39"/>
@@ -1365,16 +1362,16 @@
         <v>12807</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
@@ -1400,10 +1397,10 @@
         <v>12807</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1429,73 +1426,85 @@
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11" s="43">
         <v>12807</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="7:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="7:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="7:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -1503,18 +1512,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1554,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,47 +1564,47 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="56"/>
+      <c r="E2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="57"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="57"/>
+      <c r="K2" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="58"/>
       <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1620,11 +1617,11 @@
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="14"/>
       <c r="E3" s="5" t="s">
         <v>1</v>
@@ -1634,10 +1631,10 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="59"/>
+      <c r="K3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="60"/>
       <c r="M3" s="34">
         <v>12807</v>
       </c>
@@ -1651,22 +1648,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>15</v>
@@ -1690,22 +1687,22 @@
         <v>23</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="T4" s="5"/>
     </row>
@@ -1723,13 +1720,13 @@
         <v>12807</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -1741,10 +1738,10 @@
         <v>48</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -1767,13 +1764,13 @@
         <v>12807</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1785,10 +1782,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1806,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,43 +1818,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1880,7 +1875,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="32">
         <v>6</v>
